--- a/becsles_SzMA.xlsx
+++ b/becsles_SzMA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PalkovicsAlex(SZOFT_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PalkovicsAlex(SZOFT_\Desktop\Becslés\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{248DFC7A-24F3-43D2-AF05-69D92F0AA832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E89F13-90E9-466A-9BBC-F38DC7B60945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{6CAD04FD-0176-407D-A43C-2D42A5BA896F}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,13 +510,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
       </c>
       <c r="B10" s="1">
         <f>(B8+4*C8+D8)/6</f>
-        <v>8.3333333333333339</v>
+        <v>63.333333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" s="1">
         <f>(D8-B8)/6</f>
-        <v>1.6666666666666667</v>
+        <v>16.666666666666668</v>
       </c>
     </row>
   </sheetData>
